--- a/防火墙界面.xlsx
+++ b/防火墙界面.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>源端口</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,9 +79,6 @@
   <si>
     <t>tcp</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>丢弃</t>
   </si>
   <si>
     <t>报文处理</t>
@@ -100,7 +97,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,6 +112,13 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -366,6 +370,14 @@
 
 <file path=xl/activeX/activeX3.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D40-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" checked="Checked" firstButton="1" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -491,7 +503,7 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>247650</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>152399</xdr:rowOff>
+          <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
@@ -664,6 +676,126 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>123825</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>57150</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1050" name="Option Button 26" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1050"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="宋体"/>
+                  <a:ea typeface="宋体"/>
+                </a:rPr>
+                <a:t>通过</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>57150</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>28575</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1051" name="Option Button 27" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1051"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="宋体"/>
+                  <a:ea typeface="宋体"/>
+                </a:rPr>
+                <a:t>丢弃</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
@@ -958,7 +1090,7 @@
   <dimension ref="C1:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1008,11 +1140,9 @@
     <row r="4" spans="3:14" x14ac:dyDescent="0.15">
       <c r="C4" s="4"/>
       <c r="D4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="5" t="s">
         <v>16</v>
       </c>
+      <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
@@ -1156,7 +1286,7 @@
         <v>7</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G13" s="16" t="s">
         <v>13</v>
@@ -1188,7 +1318,7 @@
         <v>1</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>15</v>
@@ -1319,12 +1449,9 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:F3">
-      <formula1>"tcp,udp,udplit,icmp,icmpv6,esp,ah,sctp,mh"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:F4">
-      <formula1>"丢弃,接受"</formula1>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3">
+      <formula1>"all,tcp,udp,udplit,icmp,icmpv6,esp,ah,sctp,mh"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1407,6 +1534,50 @@
         <control shapeId="1043" r:id="rId7" name="CheckBox1"/>
       </mc:Fallback>
     </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1050" r:id="rId9" name="Option Button 26">
+          <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0" altText="">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>123825</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1051" r:id="rId10" name="Option Button 27">
+          <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>57150</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+    </mc:AlternateContent>
   </controls>
 </worksheet>
 </file>

--- a/防火墙界面.xlsx
+++ b/防火墙界面.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>源端口</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -90,6 +90,14 @@
   </si>
   <si>
     <t>丢弃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>源NIC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目的NIC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -796,6 +804,63 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>28573</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="圆角矩形 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6858000" y="3819525"/>
+          <a:ext cx="600075" cy="200023"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>保存</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1087,15 +1152,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="C1:N22"/>
+  <dimension ref="C1:N24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.75" customWidth="1"/>
+    <col min="1" max="1" width="1.375" customWidth="1"/>
     <col min="2" max="2" width="8.875" customWidth="1"/>
     <col min="3" max="3" width="1.375" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
@@ -1209,12 +1274,16 @@
     </row>
     <row r="8" spans="3:14" x14ac:dyDescent="0.15">
       <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
+      <c r="D8" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
+      <c r="I8" s="7" t="s">
+        <v>20</v>
+      </c>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
@@ -1433,19 +1502,47 @@
       <c r="M21" s="11"/>
       <c r="N21" s="6"/>
     </row>
-    <row r="22" spans="3:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C22" s="8"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="11"/>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="C22" s="4"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="6"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="C23" s="4"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="6"/>
+    </row>
+    <row r="24" spans="3:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C24" s="8"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1461,33 +1558,33 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1047" r:id="rId4" name="CheckBox3">
+        <control shapeId="1043" r:id="rId4" name="CheckBox1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
                 <xdr:colOff>247650</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
                 <xdr:colOff>390525</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1047" r:id="rId4" name="CheckBox3"/>
+        <control shapeId="1043" r:id="rId4" name="CheckBox1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1045" r:id="rId6" name="CheckBox2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
@@ -1511,27 +1608,27 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1043" r:id="rId7" name="CheckBox1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
+        <control shapeId="1047" r:id="rId8" name="CheckBox3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
                 <xdr:colOff>247650</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
                 <xdr:colOff>390525</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1043" r:id="rId7" name="CheckBox1"/>
+        <control shapeId="1047" r:id="rId8" name="CheckBox3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">

--- a/防火墙界面.xlsx
+++ b/防火墙界面.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="28035" windowHeight="12570"/>
+    <workbookView xWindow="360" yWindow="60" windowWidth="28035" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="初版界面" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="端口映射" sheetId="1" r:id="rId1"/>
+    <sheet name="安全策略" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -16,9 +16,52 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
-  <si>
-    <t>源端口</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="42">
+  <si>
+    <t>目的端口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>源IP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规则列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>源Port</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目的IP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目的端口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>协议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tcp</t>
+  </si>
+  <si>
+    <t>tcp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报文处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丢弃</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -26,78 +69,117 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>目的IP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目的端口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>目的Mac</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>源IP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>规则列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>源Port</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>源Mac</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目的IP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目的端口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目的Mac</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>协议</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tcp</t>
-  </si>
-  <si>
-    <t>tcp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>报文处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>报文处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>丢弃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>源NIC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目的NIC</t>
+    <t>源网卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enp3s0</t>
+  </si>
+  <si>
+    <t>enp4s0</t>
+  </si>
+  <si>
+    <t>10.1.0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目的网卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.0.78</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>端口映射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端IP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.0.100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出口设备：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端IP：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入口设备：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出口设备端口：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部IP：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部端口：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报文处理：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>协议：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>源IP地址：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>源端口：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>源Mac地址：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目的IP地址：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目的端口：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目的Mac地址：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全策略</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>策略列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络端口：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络端口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -105,7 +187,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,14 +204,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -139,6 +228,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -299,7 +412,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -352,6 +465,33 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -380,28 +520,32 @@
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D40-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
+<file path=xl/activeX/activeX4.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D40-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" checked="Checked" firstButton="1" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" firstButton="1" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>85727</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -410,8 +554,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6038850" y="1123952"/>
-          <a:ext cx="600075" cy="200023"/>
+          <a:off x="6724650" y="1476377"/>
+          <a:ext cx="647700" cy="209548"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -449,15 +593,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>95252</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -467,8 +611,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6991350" y="1133476"/>
-          <a:ext cx="600075" cy="190499"/>
+          <a:off x="7724775" y="1485902"/>
+          <a:ext cx="581025" cy="190498"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -510,13 +654,13 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>247650</xdr:colOff>
-          <xdr:row>12</xdr:row>
+          <xdr:row>13</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>390525</xdr:colOff>
-          <xdr:row>14</xdr:row>
+          <xdr:row>15</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -551,13 +695,13 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>247650</xdr:colOff>
-          <xdr:row>14</xdr:row>
+          <xdr:row>15</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>390525</xdr:colOff>
-          <xdr:row>15</xdr:row>
+          <xdr:row>16</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -592,13 +736,13 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>247650</xdr:colOff>
-          <xdr:row>15</xdr:row>
+          <xdr:row>16</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>390525</xdr:colOff>
-          <xdr:row>16</xdr:row>
+          <xdr:row>17</xdr:row>
           <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -629,15 +773,15 @@
   </mc:AlternateContent>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>28573</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -684,137 +828,17 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1050" name="Option Button 26" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1050"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="宋体"/>
-                  <a:ea typeface="宋体"/>
-                </a:rPr>
-                <a:t>通过</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>57150</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>28575</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1051" name="Option Button 27" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1051"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="宋体"/>
-                  <a:ea typeface="宋体"/>
-                </a:rPr>
-                <a:t>丢弃</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>28573</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -861,6 +885,343 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>85727</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="圆角矩形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8448675" y="1647827"/>
+          <a:ext cx="647700" cy="209548"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>添加</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>28573</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="圆角矩形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8705850" y="3467100"/>
+          <a:ext cx="600075" cy="200023"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>删除</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>28573</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="圆角矩形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8705850" y="3990975"/>
+          <a:ext cx="600075" cy="200023"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>保存</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>19051</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>533400</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>38101</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2052" name="Option Button 4" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2052"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="宋体"/>
+                  <a:ea typeface="宋体"/>
+                </a:rPr>
+                <a:t>通过</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>323850</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>828675</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2053" name="Option Button 5" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2053"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="宋体"/>
+                  <a:ea typeface="宋体"/>
+                </a:rPr>
+                <a:t>丢弃</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>323850</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>447675</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>161925</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2058" name="CheckBox1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2058"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
@@ -1152,10 +1513,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="C1:N24"/>
+  <dimension ref="C2:Q25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V13" sqref="V13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1163,35 +1524,22 @@
     <col min="1" max="1" width="1.375" customWidth="1"/>
     <col min="2" max="2" width="8.875" customWidth="1"/>
     <col min="3" max="3" width="1.375" customWidth="1"/>
-    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.5" customWidth="1"/>
-    <col min="6" max="6" width="9.5" customWidth="1"/>
-    <col min="14" max="14" width="2" customWidth="1"/>
+    <col min="6" max="6" width="13.625" customWidth="1"/>
+    <col min="7" max="7" width="4.5" customWidth="1"/>
+    <col min="8" max="8" width="15.25" customWidth="1"/>
+    <col min="9" max="9" width="12.75" customWidth="1"/>
+    <col min="17" max="17" width="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="3:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C2" s="1"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="3"/>
-    </row>
-    <row r="3" spans="3:14" x14ac:dyDescent="0.15">
-      <c r="C3" s="4"/>
-      <c r="D3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>14</v>
-      </c>
+    <row r="2" spans="3:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="C3" s="1"/>
+      <c r="D3" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -1199,14 +1547,15 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="6"/>
-    </row>
-    <row r="4" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="3"/>
+    </row>
+    <row r="4" spans="3:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C4" s="4"/>
-      <c r="D4" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
@@ -1215,82 +1564,99 @@
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-    </row>
-    <row r="5" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="6"/>
+    </row>
+    <row r="5" spans="3:17" x14ac:dyDescent="0.15">
       <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-    </row>
-    <row r="6" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="6"/>
+    </row>
+    <row r="6" spans="3:17" x14ac:dyDescent="0.15">
       <c r="C6" s="4"/>
       <c r="D6" s="4" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
-      <c r="I6" s="5" t="s">
-        <v>3</v>
-      </c>
+      <c r="I6" s="5"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-    </row>
-    <row r="7" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+    </row>
+    <row r="7" spans="3:17" x14ac:dyDescent="0.15">
       <c r="C7" s="4"/>
       <c r="D7" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
+        <v>24</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
-      <c r="I7" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-    </row>
-    <row r="8" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="I7" s="5"/>
+      <c r="L7" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+    </row>
+    <row r="8" spans="3:17" x14ac:dyDescent="0.15">
       <c r="C8" s="4"/>
       <c r="D8" s="4" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
+      <c r="F8" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
-      <c r="I8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-    </row>
-    <row r="9" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="I8" s="5"/>
+      <c r="L8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+    </row>
+    <row r="9" spans="3:17" x14ac:dyDescent="0.15">
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="5"/>
@@ -1298,129 +1664,166 @@
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
       <c r="L9" s="5"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-    </row>
-    <row r="10" spans="3:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+    </row>
+    <row r="10" spans="3:17" x14ac:dyDescent="0.15">
       <c r="C10" s="4"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="6"/>
-    </row>
-    <row r="11" spans="3:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D10" s="4"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+    </row>
+    <row r="11" spans="3:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C11" s="4"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="6"/>
-    </row>
-    <row r="12" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="D11" s="8"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="6"/>
+    </row>
+    <row r="12" spans="3:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C12" s="4"/>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="6"/>
+    </row>
+    <row r="13" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="C13" s="4"/>
+      <c r="D13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="6"/>
+    </row>
+    <row r="14" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="C14" s="4"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="J14" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="L14" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="M14" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="N14" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="6"/>
-    </row>
-    <row r="13" spans="3:14" x14ac:dyDescent="0.15">
-      <c r="C13" s="4"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="16" t="s">
+      <c r="O14" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="I13" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="J13" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="K13" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="L13" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="M13" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="N13" s="6"/>
-    </row>
-    <row r="14" spans="3:14" x14ac:dyDescent="0.15">
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="5">
-        <v>1</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-    </row>
-    <row r="15" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="P14" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q14" s="6"/>
+    </row>
+    <row r="15" spans="3:17" x14ac:dyDescent="0.15">
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="5">
-        <v>2</v>
-      </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
+        <v>1</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="5">
+        <v>80</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="L15" s="5"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-    </row>
-    <row r="16" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="M15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="N15" s="5">
+        <v>8080</v>
+      </c>
+      <c r="O15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+    </row>
+    <row r="16" spans="3:17" x14ac:dyDescent="0.15">
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
@@ -1429,13 +1832,18 @@
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.15">
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
-      <c r="E17" s="5"/>
+      <c r="E17" s="5">
+        <v>3</v>
+      </c>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
@@ -1443,10 +1851,13 @@
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.15">
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="5"/>
@@ -1457,98 +1868,139 @@
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.15">
       <c r="C19" s="4"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="6"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="D19" s="4"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.15">
       <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-    </row>
-    <row r="21" spans="3:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D20" s="13"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="6"/>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.15">
       <c r="C21" s="4"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="6"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="D21" s="4"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+    </row>
+    <row r="22" spans="3:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C22" s="4"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="6"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="D22" s="8"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="6"/>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.15">
       <c r="C23" s="4"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="6"/>
-    </row>
-    <row r="24" spans="3:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C24" s="8"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="11"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="6"/>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="C24" s="4"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="6"/>
+    </row>
+    <row r="25" spans="3:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C25" s="8"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5">
       <formula1>"all,tcp,udp,udplit,icmp,icmpv6,esp,ah,sctp,mh"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7 M7">
+      <formula1>"enp3s0,enp4s0"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1558,44 +2010,44 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1043" r:id="rId4" name="CheckBox1">
+        <control shapeId="1047" r:id="rId4" name="CheckBox3">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
                 <xdr:colOff>247650</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
                 <xdr:colOff>390525</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1043" r:id="rId4" name="CheckBox1"/>
+        <control shapeId="1047" r:id="rId4" name="CheckBox3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1045" r:id="rId6" name="CheckBox2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
                 <xdr:colOff>247650</xdr:colOff>
-                <xdr:row>14</xdr:row>
+                <xdr:row>15</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
                 <xdr:colOff>390525</xdr:colOff>
-                <xdr:row>15</xdr:row>
+                <xdr:row>16</xdr:row>
                 <xdr:rowOff>19050</xdr:rowOff>
               </to>
             </anchor>
@@ -1608,45 +2060,553 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1047" r:id="rId8" name="CheckBox3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+        <control shapeId="1043" r:id="rId7" name="CheckBox1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
                 <xdr:colOff>247650</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
                 <xdr:colOff>390525</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1047" r:id="rId8" name="CheckBox3"/>
+        <control shapeId="1043" r:id="rId7" name="CheckBox1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </controls>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="C2:O27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="1.375" customWidth="1"/>
+    <col min="2" max="2" width="8.875" customWidth="1"/>
+    <col min="3" max="3" width="1.375" customWidth="1"/>
+    <col min="4" max="4" width="10.75" customWidth="1"/>
+    <col min="5" max="5" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" customWidth="1"/>
+    <col min="7" max="7" width="4.5" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="9" max="9" width="12.75" customWidth="1"/>
+    <col min="10" max="10" width="12" customWidth="1"/>
+    <col min="15" max="15" width="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C3" s="1"/>
+      <c r="D3" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="3"/>
+    </row>
+    <row r="4" spans="3:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C4" s="4"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="6"/>
+    </row>
+    <row r="5" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C5" s="4"/>
+      <c r="D5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="6"/>
+    </row>
+    <row r="6" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+    </row>
+    <row r="7" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C7" s="4"/>
+      <c r="D7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+    </row>
+    <row r="8" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C8" s="4"/>
+      <c r="D8" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+    </row>
+    <row r="9" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C9" s="4"/>
+      <c r="D9" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+    </row>
+    <row r="10" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C10" s="4"/>
+      <c r="D10" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="K10" s="26"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+    </row>
+    <row r="11" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+    </row>
+    <row r="12" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+    </row>
+    <row r="13" spans="3:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C13" s="4"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="6"/>
+    </row>
+    <row r="14" spans="3:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C14" s="4"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="6"/>
+    </row>
+    <row r="15" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C15" s="4"/>
+      <c r="D15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="6"/>
+    </row>
+    <row r="16" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C16" s="4"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="I16" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="J16" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="K16" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="M16" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="N16" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="O16" s="6"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="5">
+        <v>1</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17" s="5">
+        <v>80</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M17" s="5">
+        <v>8080</v>
+      </c>
+      <c r="N17" s="23"/>
+      <c r="O17" s="6"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="5">
+        <v>2</v>
+      </c>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="6"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="5">
+        <v>3</v>
+      </c>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="6"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="6"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="6"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C22" s="4"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="6"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+    </row>
+    <row r="24" spans="3:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C24" s="4"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="6"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C25" s="4"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="6"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C26" s="4"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="6"/>
+    </row>
+    <row r="27" spans="3:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C27" s="8"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="11"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7 H17">
+      <formula1>"enp3s0,enp4s0"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5">
+      <formula1>"all,tcp,udp,udplit,icmp,icmpv6,esp,ah,sctp,mh"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <controls>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2058" r:id="rId4" name="CheckBox1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>323850</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>447675</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2058" r:id="rId4" name="CheckBox1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1050" r:id="rId9" name="Option Button 26">
-          <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0" altText="">
+        <control shapeId="2052" r:id="rId6" name="Option Button 4">
+          <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>123825</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>533400</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -1655,20 +2615,20 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1051" r:id="rId10" name="Option Button 27">
+        <control shapeId="2053" r:id="rId7" name="Option Button 5">
           <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>57150</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>323850</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>5</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
+                <xdr:colOff>828675</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -1676,20 +2636,6 @@
       </mc:Choice>
     </mc:AlternateContent>
   </controls>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
